--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/52_Kocaeli_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/52_Kocaeli_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A7BDA8-8BC0-491A-9E36-A0727C822926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4F1784-6F63-4302-AB74-A85EE1F04A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{7CB04EA9-8132-47F2-A019-BB9527DF5736}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{9EF38C31-F798-47B6-BB1D-B6CBCB08B513}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -935,14 +935,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C6EC0BC0-DB3D-473A-B16A-2E1065D4B733}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8C71FB60-A03D-44EB-BB04-7192484A4DF1}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8E4051DD-D87A-408C-9279-44B85151C5B7}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{B9588CDD-0710-4005-B03A-1E9AF958262B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{39B55971-2278-4EA2-8E9B-269B158C55FE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4B1ECAAE-82F5-4557-89EA-6FE2F0A2D048}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{65F281EB-AAED-4860-A0B0-18A817B2D67A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{947E2B61-9591-48E8-89EE-6FB40B2E1775}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5A4B40EF-E5A3-4968-93F1-0E436D191774}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6EDD7E01-A0DE-44F0-85D6-2022EA5F28CA}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{73915B12-D845-4093-97D5-8BCCAC2D2766}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D5B69D7D-66AA-42F3-8B70-7F7373EE0A6E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DE529613-7FFD-40C7-8451-29D1CF953D31}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{421597D9-2E44-4DFF-8D88-9EB5C8392F3D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{A23A2C5C-3565-4964-91FB-110BA0ACB64F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{21A143C8-867D-437A-A5FD-7DBF2282E53E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B1B591-4542-48FD-98D6-2DBDDB7C9E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D88A0E-7D2C-499C-ACA2-4DCB8DB7682D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2585,18 +2585,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C00133EE-C4CA-419E-A508-19DDCB66D650}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2473023E-90CD-48F2-9E78-33643BE631C2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ECA55C74-8FE2-4E9F-90AE-E82666251381}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7E2E4FCE-B22D-44C8-B84B-DCC2150BD8DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01F61CA6-189F-4615-B806-CD4558B80AFC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4276C5A6-EF6B-42C2-B518-6476DDBB35B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73A65CD3-719A-490E-A0B2-B291073B6125}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99DAFC2C-6ABA-4511-81CC-D648910B6852}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3CD79D5-145E-4FAF-824A-509B41DC7912}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5023CE08-8CC7-4DB6-B48E-6296B23928A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3489B2C4-2DD8-43F8-BAA8-D0DC0BEF7013}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A631DC8-7CCA-4940-8367-590B5FFA6BDD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E6B8A72-B2D0-4485-9A2E-AC7B7374D414}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16BA5FD2-AA0A-4FAA-992E-F9B3A405C1BF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D92CDE48-407F-4EE8-8AC9-A6B937A59198}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{12F9639E-B75E-4645-AA3C-929310B1A4A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7785C70E-A265-4540-A042-D2BC90B1EC5D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16AEE5BB-9B76-44F1-BFE2-8C0EFE5E0B98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F47164BF-3AA9-4CC7-B83D-CFA1E78CBC30}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A7540F6-3DD0-4A84-A9DF-57688DD6CCA8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73AEA78E-2497-468A-8459-F51FB24CAFD4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B02E47AE-12A5-49D9-BB80-DE793293B291}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{574B05F4-63E3-4B47-9D2E-771D6AB281F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9686A9C-16EC-4208-A933-581F72007F5F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2609,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525518E9-20A0-4AE7-9F6B-2B8414908CF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1333-3394-4B30-8386-3B356D65BCBA}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3867,18 +3867,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59020681-1A9F-4022-9158-C9C7A1C2DEAD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{599390A2-14E4-4314-B877-1417F5F1B4ED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BFEF2DA0-ACDC-4B6F-A9F8-AE7EC3F588F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5BB16ED-0BC9-4EC8-9BA7-FACF8882AB5F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AFC4EDC-25F0-498E-B465-3F04A610D464}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55A8DFF9-D889-45B2-A286-D0FC5707A0CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31218D0A-E926-46AA-8354-64BE3306B150}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82EF87E1-6869-4BD2-ADFF-EADD4308FB85}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98E78873-9632-4F93-82E8-E4D118E447A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF1F7D30-EAE3-4D1E-8B9B-D9DF46807248}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A712FCB-C3E2-4509-88A4-D09AB32F3E95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBA896B2-DA5D-4ABC-A64B-A8CC70ADBACF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5573E88E-A565-4C7D-96BC-415A78608F34}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{978ECDC4-9BFD-4FE8-8F87-682A48D8FAD2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E557D91A-6A66-4500-8F7C-C3904E0B0F0E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16C80100-7504-49FC-B02A-7EE901061F52}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{81BCE618-333A-4E2B-BFA5-FB2562E01C9F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27BB8C72-EADF-4B1E-8368-A8C1AB364F8B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BD71144-67AB-4F32-B3AF-873C624FBF07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8213C091-0D03-457E-9B95-1463B972BB2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB5781DD-2647-414F-AAF4-3169FC8321C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F34E1460-3878-468D-B0AA-D283E122A59A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F2540CE-2F95-4E8B-9562-970FB3AA306A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E65B423-6719-47A7-812F-E51FF53527F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3891,7 +3891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C1C2C9-19A5-4F7C-B98B-09F7315B40F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACD2C77-4EA8-4C56-8C0B-771244FF5E35}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5149,18 +5149,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88BEF9FE-374A-40F1-9F2F-9C857010083D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA253CA5-EE2C-4BCB-984B-501801CB1B79}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C33F44E4-7728-4876-BE4D-84864875B480}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{412F0448-0DBC-4B97-93DB-E7790AF2E702}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4AB386B-3CDB-487A-8A76-9B062CBBBBE1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{12F4B4F2-4990-400F-9828-E706CC9C624D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8AF94DB6-D3D6-4A65-B2AA-E404DB3FBDDA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3BE0B990-0A5A-424E-B538-4CCFFA8435FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A4A5C39-6681-46F9-9955-104DEF601D3A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0AEBECA7-88A7-4E96-8120-FD7E0E456CE3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAA3751F-1867-4868-8228-9918E7C99988}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52535E3B-256F-4A72-A99F-4AF5BA415284}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AC674F9-F441-47AD-BE58-07CF8B3B49F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81C744FD-DD06-4145-AD84-3343DFC45BA7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB3D8E9C-1145-49B0-9EE9-9A86FB934B97}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{03E09EBB-401F-4425-98B3-8EA8419C4086}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28CD45E3-5708-49C8-BAB5-906457A763B6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0F8256E-462C-4A36-AF85-D4AE5D88DDD0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8679E8C-86E5-4E76-B44D-06825C307F6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CB583DE-8440-442A-AFB3-803C546CA658}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC24B70F-D89F-4BB6-97F5-A25A1E3BD523}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D01D8E9-80B4-4ECA-89E4-955AD080E4DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C072511-8C5A-4407-9886-6BE3E1FCAF95}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0550542-3BDA-4280-90F2-277DC1B94215}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5173,7 +5173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D580FB4-A55B-4A09-980A-2F19D58FB983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC97D2D-DE8D-4452-B88B-6C167BA4C482}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6427,18 +6427,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CB66908-DBD3-4E31-B03A-4559C8A0E39B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D6C0F6D-CE80-45B3-B0BD-8A7F0C948E5C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{813E2483-4E9E-4312-A903-DA94A3020371}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68ABB035-1B33-4D0A-BEBD-E87DFD7A8D8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{881478BB-1280-4F53-A2D9-E2311B010E91}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08288F9C-CF09-4E6B-BFD7-67DA26C869B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E9A622E-B2EF-4007-BD4A-867D4DFFDB12}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE32DC06-ACE3-491A-AD56-E51930E049B2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D797270-05FD-47FF-8A7E-5793FF45FF90}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5547B9F5-6836-45F7-8547-53C52B89006D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5198E63C-84BD-4B43-8782-3D56FC8C8025}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{469223D2-CCBD-475D-8436-16A409E302AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{838CA268-26C7-4B36-BDBE-DA49532A21A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55C1C28D-37DE-470F-8130-7A016AD218C6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{989FE7B0-34BB-4731-BC12-495F7B761E43}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1083240B-AC99-494A-AE94-B9D05891C616}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9802D50F-39C9-4691-AB2D-2F0656B1C1B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{98583569-9BBB-40EB-AB1F-51E2D4DCA5B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A49119E9-D50E-4E2B-9ED8-A7A3745AF13E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF19043B-14C4-4E3E-AC5E-052193148BED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1D58709-DFDE-4E67-91D4-C98B76409AC1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A388295-B166-4578-B0A0-C52E66F7951E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7393F56-2CEC-4182-949B-548B0473F276}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE46EB7B-F1C1-4320-95C4-8779EB9239AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6451,7 +6451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6A660F-A847-4FD6-84ED-AB122CE42848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78B6B17-DE71-49CA-84D0-A7669F77C890}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7724,18 +7724,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9DEA9D69-D4D7-4A76-9AF0-D7674706F02A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9176F5E-91B3-4C44-9B60-5E3190F7326F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{85DD8DF3-9F0F-4240-8F04-E1B89B8D6E41}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0CDF4464-C4E4-4936-8430-37B9EAAB3D1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD1E18CB-6F79-4841-92F1-125BCB5DE543}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63F3EE10-3315-41A1-9B48-2C39D3E6B567}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3951496-CF7E-4F27-AE23-A565E7298AF9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE75880F-ABA5-4D78-8BE2-C3E9D840C157}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A302EF7C-2E7C-4AC4-8AF7-BCD760914692}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6BE3F837-CD38-4B20-8F16-6A0BD5E94AD6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{090F9E13-1BB7-43B4-9F2D-113A96B25FF9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96585EF3-DB1C-4373-BB12-F1BB034DD6C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B1EE8CD-F312-41C1-85E6-7D05F659F303}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94EB37BA-481A-4C21-87DD-CF67E75997E6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{297545D9-AA1A-4370-9F41-B0F23CE86F58}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4F97E9C4-AF5D-4812-9563-36EEC67BFAF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{502672CF-40E3-4497-996C-5FB1BEE828F3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{542959E0-AEC6-49E5-8F32-EC829A439167}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BF0E7A5-35BA-4908-86D6-0371B8A05EF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F11FA34-7DEC-485D-A364-16322B0F2B80}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56C0D525-123E-498B-9DD4-417A6E550CFA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3E6D4FFB-9DEC-4EF3-8A3C-9636F85C4647}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62FCFC0B-5C12-41D7-9705-415FAC25C2DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8FCABA9B-BD7E-4AC9-A689-5ACF61088A20}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7748,7 +7748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFBCD31-F24F-4A7D-8935-99FF731818BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176F8867-FAA6-4885-967A-0135EC6E5391}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9021,18 +9021,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1AD6EB29-9EF6-4917-BF7C-BC8AB7D097FC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD5D07D2-0A99-4E2D-9812-029ED857F5D1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7003B62C-ECA9-4318-B560-C8541004E8D7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3A1DF102-39DB-416F-A47F-028D3C3E65BF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A27356FD-B0FF-4D5E-BE52-FF3E2DFB77AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD7ACA7B-AF45-47E6-8573-8EC5E4451FB2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E189D6B1-3F6F-4DB9-9765-7EA16C09A90F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F8A0676-269D-47DF-A359-BB02B0D6AF88}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CAC1B541-A9CC-48A0-9263-6207D364ACE8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F479D22-8A72-410D-B4C9-07E3C6B8FC28}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3189B767-585B-4EBA-A176-98D04F5693F2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FE8F06F-7E47-4474-9920-EFF3E0A84E07}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3269318F-4EFE-470B-9A25-C8E9DB8BC07D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C187DEE8-4AF8-4744-9116-DFC66F0AF874}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC5A2F48-83C0-42C0-A6D2-AF7A12C5FD12}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BDB349BB-3583-471A-BD7B-B373611193A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBDBDED4-0A0A-4BDB-A680-847C23EE9C92}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D6B4DFE3-7F28-4B2E-9A93-2BB475A6AA97}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8A3E769-7570-4A1C-BD83-5FA0960D3DB9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFEDD80C-D890-488A-8193-7EF976337EE1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{110C0D14-B64D-4C28-A80C-23C6F0BC938F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2887E27E-23C6-46F1-BA56-6C9CEEC13ADB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DEC865C-61FC-40C1-AB11-E38A78992236}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9BABE608-BC97-49D6-B760-BF6E3C627421}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9045,7 +9045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1981E7-4D7E-4BE2-A5AD-D6C402BCEA43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16446B9-5DC9-45BF-A21E-11A9F3C0405F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10318,18 +10318,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD87DFBA-4F93-4966-8DD8-0947F32E6928}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2A0B778-AB86-4424-9506-734CA8330DF6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C9BB36C8-C8DD-4C56-8149-D75D402FEAF0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{52353913-F7C5-451A-8242-FDCE29AF634D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11144D49-0E40-42EF-BEDF-4940CCFB3E44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5026CDC4-733C-44AD-AFF7-0172D1F1BBE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{026053A0-8C4B-4B39-A4CA-D92C2D6812D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E157133D-476D-4D63-9838-AC9CFAB331ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60D858BD-328D-4B44-BB3B-CA6010949FBF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B8B8E86-DD4F-48D2-8035-D8AC6DF987AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18DCB8A0-2787-4D01-BE30-3DFBB8C21FBB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9A37FE2-2CB0-4F73-8CA8-8E2AF9A2695C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A8AA8C8-65F1-4D23-804B-A6EF260E809A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66C15BCC-2BD5-4878-B331-4870482FC902}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CBD837F4-354C-475A-996D-1903EF597BFE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5EA3437-B773-402F-8754-ED06A0DB11DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63649044-7122-4E03-9470-BEC629F3678D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DBA0AC0F-2000-4C14-9608-AB14D7BA7DBE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04B0F3DB-3FE9-4B5E-954C-E95EB802C597}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8A89995-B93B-413C-A9DE-C1B19751FC81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5ED24FFB-FA91-43E3-B559-39B14296E9C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC543302-CFCA-4459-B189-20746819D9B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F702821F-4C4D-4145-A4B3-4EF05FA2F1A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54016F94-BF2F-49D9-BB79-37A21752A751}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10342,7 +10342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD63DE0D-A8ED-4A15-8D0E-13B603598B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95411B99-A6A7-44D8-9C97-D22D342208B4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11649,18 +11649,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3B6EC3C-2195-4338-BA6E-98F988A72FB3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62CE2488-FF32-41B2-9F47-A21F7A5115CC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0656187E-8358-4B38-8058-C39A13704DE5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6266FBCB-1580-439C-92EF-C05CFE0BA7E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A5DF6A1-766C-423B-80D5-373B4258FA35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D0A59BD-9159-4E53-B6BB-D0695CA3BE57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54FCB94F-A521-4E72-934F-BC346DD769F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3F143EE-15F1-4537-AEDC-ACA4ABFC904A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5784F16B-9591-467D-8D35-56505DA5BBB4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A9DD28D-0FD9-44A5-934B-30C112AE372E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2F091C7-A988-44CF-AD1D-8D8B82CD9200}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{235EDB0E-FE01-45D8-800F-C256E661347E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1BE97A5E-7729-48D8-B4B0-A7208BF0AFDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8D5FB34-834C-43CE-8D26-7C32925537AE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{409C063D-78AA-4914-8D38-B88DC9A2F85E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1C50DEC6-0281-4A3A-A446-DB8BC6F974CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6DF8E93D-DD60-47AF-9FD2-A5106B675B6D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{946677CE-6467-4146-B27E-8DDC646553B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5D5C55C-A5CF-4CA2-90BF-242E487C5F9D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AC55607-405E-4A20-9ECC-F8F97AB4C019}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{390858F7-A779-4FA1-8BFB-23C1B11D1E3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4508DE78-1E3F-4DD5-AB4F-9303A9956CF9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7C50EDD-7C47-4DE4-B3D0-9D51F253EB71}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{895D6E13-E960-48A8-A621-1566A2F80DC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11673,7 +11673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E40864-98A7-4135-A257-E2070B7D0087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9548F0D5-444B-4400-BCED-C0AE254D364B}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12938,18 +12938,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04D248A8-1B10-4704-99BF-9771ED6E47B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EC1C0A5-DDEA-4103-8528-7657FEAF480D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{461C0C8F-0F5A-484A-AD81-33955DC04982}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{128BF9BD-5175-42CC-A2F9-EF53405D049B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{843A47F7-8A1D-4E21-BBB0-32C94D7F15E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{89824BF1-1F28-4E85-B259-A35F6EBCC126}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5A514EC-4BDA-434D-B094-997BA9F5F742}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A7C2C1C-83BE-4076-8B75-C78C93E078AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96C96231-D121-4A1A-9D36-89CE3967CCD2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A00EA2A1-468C-4812-9D53-CC45894BED0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A73B8B55-5F46-4AEA-8AF8-DD0998B02F03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D848E2BC-CD04-4E9A-B62C-D59989D29D69}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCE90640-DFF8-4168-9001-3BE4D110EC0D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42779EFC-A7F0-42DB-B299-68CA45741C97}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{514EBF92-B98E-46B7-8DA3-8F285AB55554}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB10ABE1-1427-4727-8D27-53714D8CA2C4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC0F6837-43FD-4FAC-A314-5AA40BF66CBA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{003B73C6-3B13-4832-99D4-2F587EF61399}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E718F35-E282-4774-941F-B5CF7DD62EE1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A96A8E26-CC4C-4427-87C3-D2AF6A29E5F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B603D14-D890-4E6B-B13E-FE6DAE4496A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{60578778-987E-41E3-870A-D3855088ABB3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C80F17EA-ECE4-4F5F-B098-E08A130CEF08}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA5D9208-D840-4EAE-924B-72A79C67B7AC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12962,7 +12962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0685246-97F3-4DA3-B07D-B9F5A4DFEA43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB6E306-64D8-4DC9-85E4-228A7B4FFA4D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14224,18 +14224,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D93E2432-B5E6-4917-9E14-7701F3469D55}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE24592A-BADC-401E-884F-0BB34FA73DD3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B75F63C4-D29D-4C51-96AC-5972CEC71BE9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{53FE8FA6-8099-4F21-B1A2-418ABE5B895B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66790119-5F20-43C4-9D10-CE563B2EAC3C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{07D8723D-791B-46C6-A3F7-FDFA3F685C3C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98212022-5C0F-4A91-91F4-6ABBF60B6CF3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA0379C8-D2AC-4A41-82E5-ACBB0D01095D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77E1F299-F269-4DCF-A91F-702921CEA6ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF967984-54F1-4576-8AF0-8F916370D967}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8648EBB5-9B82-46C6-88A4-FB93F57B58F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19E68328-8AED-4E8E-9D09-B353F8504EFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1946791-A6CD-4CB0-A96F-A699EF7D5E71}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0F6123F-4B1A-4700-9956-341FF511E0F2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D014D452-E267-4BCB-B7AA-E4D806E24ED7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{763BD153-E565-4A89-9374-C4E2776ED48C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5247B1FD-BDDB-4046-A9D2-90AFD4FD1A5D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E405A5E6-8450-4844-8A7B-067823D81B05}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{467ABA5C-1608-4F52-8A0B-3716C4B9D358}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37ACCC37-AE98-4852-9CCF-D3660F5AF220}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06EC9718-7811-4CBA-BA32-7018DAC88DB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6401024-1397-4460-8011-5A826573D296}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB0A2FBE-F38C-4BC4-8061-2EDE22EB4193}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D2DF693-666E-46E4-924C-D018CD854BAC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14248,7 +14248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE3DD55-EB94-48CB-B46F-77C410A7F89C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A46D3B6-640C-4165-96DA-726067FBC94D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15508,18 +15508,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8E2E3EB-6F43-498A-87B0-ED7D40D276FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C71E3646-B484-4237-BBC0-63446530FA40}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2E69EFDF-B187-4F07-8D6D-756C0891A72C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{949E7DA7-85E1-402D-8B99-A3A99320864F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{723D1C96-4B39-4C41-91D9-8A35731A7FB5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E749A18C-8BCB-4D3D-923B-8B9F3C4E99CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C02790CA-BF40-420C-A75F-FE520689D8CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{693438FA-4E7E-4C02-8EFC-F9D892227178}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92426FBD-5C47-4881-A0C7-67188A90A804}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E5CCD8D-E56D-4F19-88BB-3773FC2D68DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{473D7484-7C3C-4792-A711-6C85568459CB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBE8059F-0735-4F84-9D23-33DFF948339A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78A31E2F-FEEC-49B3-B812-9F9407E80C33}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3F0C8A9-845A-4FF0-89E4-3842DC48848E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7ED125D-97B7-4E90-8AFA-E8391474DCC0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{205F7CF4-BF90-4D72-BA65-39B8180B5DDA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4FF06667-0CF4-4873-AE16-BDF7AE49A403}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADCA46A6-FAA9-4DAA-B6B2-54D65AF62A51}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7E96AC4-5306-4CC5-9C8F-4A0C38875713}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62C36442-2A44-4392-86CD-0E95DD68E5B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F844A64B-3920-48A7-A121-14AD89EFAA3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E54ADAC-08D3-4B3A-9F1D-892241BA6B89}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8E5F158-DA2B-4C58-9864-ACD1112BE859}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{20704DBC-E2C1-4C34-9BC9-17979F55B7B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15532,7 +15532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3266F99B-089B-4720-9C28-DC166854D209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992D655E-EC8E-40D8-8FAC-CE9DF88D2C27}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16792,18 +16792,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A47747A-45B5-42AD-B671-69B3BFF9F4B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30B5AE9B-B408-4503-800E-99A3F91A02EE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94D65B45-D7A5-46B7-9FB3-3FDC32DEDBB1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{884F16C5-CFB7-4E2A-884F-0D82A14F67BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1799B509-1DCF-4E1B-8368-59C495820757}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFC0430E-251C-46EE-A05F-3E2BBE0F3898}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C01A9306-0956-4FB0-9CAE-9CE3A3CE807F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{980EB9A5-541D-42AF-A18D-E6EE16FCF030}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2BA9BD14-D957-4367-A715-EA267E6D9F89}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{91134B19-5560-44FE-AB30-F8DC7BA431E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{380A9860-8DAA-4271-917A-4C341A942ACE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E834360-40B4-4165-AA9E-BDC2504475D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF2B0360-71A2-4644-AEEB-CE43F5BE2D2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{388AFA93-F491-4EE1-BA11-2A174D8E3473}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{046BF77E-2F76-44F5-B8FF-D08784EB5EC5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE1F7689-C1AC-44FF-B854-D6C533C98C19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{967188CB-0C2C-45B2-828C-1DFFD1ECCC99}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7DB14103-4F03-4C3C-BBD4-A598D748060E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{471CBC0E-281C-4DD1-83F5-742C4A48E0FD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F3829DF-1D1D-4BDF-95FD-F9302D0476A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30250A8F-1217-4DF7-A890-A1DCC76C3FB1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C5F5ECF-9EBA-4A5F-B033-5CD330FB0EE1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{726E8E6C-EB52-4DF7-88FE-714F7D0A1827}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB218B01-5321-497C-99D2-8B227279923D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
